--- a/tools/excel_convertor/test_data/Errorcode.xlsx
+++ b/tools/excel_convertor/test_data/Errorcode.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -66,39 +66,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>兑换码长度错误</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>兑换码不存在</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>兑换码输入错误</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>兑换码在当前渠道无法使用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>兑换码已被使用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>兌換碼長度錯誤</t>
-  </si>
-  <si>
-    <t>兌換碼不存在</t>
-  </si>
-  <si>
-    <t>兌換碼輸入錯誤</t>
-  </si>
-  <si>
-    <t>兌換碼在當前渠道無法使用</t>
-  </si>
-  <si>
-    <t>兌換碼已被使用</t>
+    <t>网络不稳定</t>
+  </si>
+  <si>
+    <t>網絡不穩定</t>
   </si>
 </sst>
 </file>
@@ -141,7 +112,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -154,6 +125,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -460,10 +438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -510,79 +488,35 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
-        <v>2</v>
+        <v>1001</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>9</v>
+      <c r="A5" s="7">
+        <v>1002</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
